--- a/uploaded-excel/test.xlsx
+++ b/uploaded-excel/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCodes\Capstone\file-api-server-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l0106\Codes\Capstone\file-api-server-v2\uploaded-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BB493B-6DBB-416A-A3A0-00E8B26E4BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9F68F-C28A-45F8-8821-3827A3024220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{8E7353AD-4C89-445C-9543-7BBDC02AB72A}"/>
+    <workbookView xWindow="3030" yWindow="1905" windowWidth="21600" windowHeight="12645" xr2:uid="{8E7353AD-4C89-445C-9543-7BBDC02AB72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>임동주</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>01000000000</t>
+  </si>
+  <si>
+    <t>김동주</t>
+  </si>
+  <si>
+    <t>박동주</t>
+  </si>
+  <si>
+    <t>ldj05</t>
+  </si>
+  <si>
+    <t>asdf123</t>
+  </si>
+  <si>
+    <t>some</t>
   </si>
 </sst>
 </file>
@@ -85,7 +100,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,17 +412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66EC71-7397-48A0-803A-9366CCA590FE}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -435,7 +451,100 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>1234</v>
       </c>
     </row>
